--- a/Output/Total_Activity.xlsx
+++ b/Output/Total_Activity.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="17">
   <si>
     <t>File Name</t>
   </si>
@@ -32,6 +32,39 @@
   </si>
   <si>
     <t>Efficiency</t>
+  </si>
+  <si>
+    <t>INIS-013020-1093.xlsx</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>INIS-013020-1093</t>
+  </si>
+  <si>
+    <t>INIS-013020-1095.xlsx</t>
+  </si>
+  <si>
+    <t>INIS-013020-1095</t>
+  </si>
+  <si>
+    <t>INIS-013020-1097.xlsx</t>
+  </si>
+  <si>
+    <t>INIS-013020-1097</t>
+  </si>
+  <si>
+    <t>INIS-013020-1101.xlsx</t>
+  </si>
+  <si>
+    <t>INIS-013020-1101</t>
+  </si>
+  <si>
+    <t>INIS-013020-1102.xlsx</t>
+  </si>
+  <si>
+    <t>INIS-013020-1102</t>
   </si>
 </sst>
 </file>
@@ -363,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,6 +422,1686 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>148</v>
+      </c>
+      <c r="E2">
+        <v>159</v>
+      </c>
+      <c r="F2">
+        <v>0.3406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>146</v>
+      </c>
+      <c r="E3">
+        <v>159</v>
+      </c>
+      <c r="F3">
+        <v>0.3406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>167</v>
+      </c>
+      <c r="E4">
+        <v>159</v>
+      </c>
+      <c r="F4">
+        <v>0.3406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>160</v>
+      </c>
+      <c r="E5">
+        <v>159</v>
+      </c>
+      <c r="F5">
+        <v>0.3406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>142</v>
+      </c>
+      <c r="E6">
+        <v>159</v>
+      </c>
+      <c r="F6">
+        <v>0.3406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>137</v>
+      </c>
+      <c r="E7">
+        <v>159</v>
+      </c>
+      <c r="F7">
+        <v>0.3406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>163</v>
+      </c>
+      <c r="E8">
+        <v>159</v>
+      </c>
+      <c r="F8">
+        <v>0.3406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>158</v>
+      </c>
+      <c r="E9">
+        <v>159</v>
+      </c>
+      <c r="F9">
+        <v>0.3406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>129</v>
+      </c>
+      <c r="E10">
+        <v>159</v>
+      </c>
+      <c r="F10">
+        <v>0.3406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>131</v>
+      </c>
+      <c r="E11">
+        <v>159</v>
+      </c>
+      <c r="F11">
+        <v>0.3406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>141</v>
+      </c>
+      <c r="E12">
+        <v>159</v>
+      </c>
+      <c r="F12">
+        <v>0.3406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>121</v>
+      </c>
+      <c r="E13">
+        <v>159</v>
+      </c>
+      <c r="F13">
+        <v>0.3406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>119</v>
+      </c>
+      <c r="E14">
+        <v>159</v>
+      </c>
+      <c r="F14">
+        <v>0.3406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>144</v>
+      </c>
+      <c r="E15">
+        <v>159</v>
+      </c>
+      <c r="F15">
+        <v>0.3406</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>146</v>
+      </c>
+      <c r="E16">
+        <v>159</v>
+      </c>
+      <c r="F16">
+        <v>0.3406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>127</v>
+      </c>
+      <c r="E17">
+        <v>159</v>
+      </c>
+      <c r="F17">
+        <v>0.3406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>146</v>
+      </c>
+      <c r="E18">
+        <v>159</v>
+      </c>
+      <c r="F18">
+        <v>0.3406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>185</v>
+      </c>
+      <c r="E19">
+        <v>159</v>
+      </c>
+      <c r="F19">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>166</v>
+      </c>
+      <c r="E20">
+        <v>159</v>
+      </c>
+      <c r="F20">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>368</v>
+      </c>
+      <c r="E21">
+        <v>159</v>
+      </c>
+      <c r="F21">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>208</v>
+      </c>
+      <c r="E22">
+        <v>159</v>
+      </c>
+      <c r="F22">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>173</v>
+      </c>
+      <c r="E23">
+        <v>159</v>
+      </c>
+      <c r="F23">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>182</v>
+      </c>
+      <c r="E24">
+        <v>159</v>
+      </c>
+      <c r="F24">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>243</v>
+      </c>
+      <c r="E25">
+        <v>159</v>
+      </c>
+      <c r="F25">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>157</v>
+      </c>
+      <c r="E26">
+        <v>159</v>
+      </c>
+      <c r="F26">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>175</v>
+      </c>
+      <c r="E27">
+        <v>159</v>
+      </c>
+      <c r="F27">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>182</v>
+      </c>
+      <c r="E28">
+        <v>159</v>
+      </c>
+      <c r="F28">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>158</v>
+      </c>
+      <c r="E29">
+        <v>159</v>
+      </c>
+      <c r="F29">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>120</v>
+      </c>
+      <c r="E30">
+        <v>159</v>
+      </c>
+      <c r="F30">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>135</v>
+      </c>
+      <c r="E31">
+        <v>159</v>
+      </c>
+      <c r="F31">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>162</v>
+      </c>
+      <c r="E32">
+        <v>159</v>
+      </c>
+      <c r="F32">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>171</v>
+      </c>
+      <c r="E33">
+        <v>159</v>
+      </c>
+      <c r="F33">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>162</v>
+      </c>
+      <c r="E34">
+        <v>159</v>
+      </c>
+      <c r="F34">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>126</v>
+      </c>
+      <c r="E35">
+        <v>159</v>
+      </c>
+      <c r="F35">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>161</v>
+      </c>
+      <c r="E36">
+        <v>159</v>
+      </c>
+      <c r="F36">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>167</v>
+      </c>
+      <c r="E37">
+        <v>159</v>
+      </c>
+      <c r="F37">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>320</v>
+      </c>
+      <c r="E38">
+        <v>156</v>
+      </c>
+      <c r="F38">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>405</v>
+      </c>
+      <c r="E39">
+        <v>156</v>
+      </c>
+      <c r="F39">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>171</v>
+      </c>
+      <c r="E40">
+        <v>159</v>
+      </c>
+      <c r="F40">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>186</v>
+      </c>
+      <c r="E41">
+        <v>159</v>
+      </c>
+      <c r="F41">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>147</v>
+      </c>
+      <c r="E42">
+        <v>159</v>
+      </c>
+      <c r="F42">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>138</v>
+      </c>
+      <c r="E43">
+        <v>159</v>
+      </c>
+      <c r="F43">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>292</v>
+      </c>
+      <c r="E44">
+        <v>159</v>
+      </c>
+      <c r="F44">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>228</v>
+      </c>
+      <c r="E45">
+        <v>159</v>
+      </c>
+      <c r="F45">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>178</v>
+      </c>
+      <c r="E46">
+        <v>159</v>
+      </c>
+      <c r="F46">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>140</v>
+      </c>
+      <c r="E47">
+        <v>159</v>
+      </c>
+      <c r="F47">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>110</v>
+      </c>
+      <c r="E48">
+        <v>159</v>
+      </c>
+      <c r="F48">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>175</v>
+      </c>
+      <c r="E49">
+        <v>159</v>
+      </c>
+      <c r="F49">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>168</v>
+      </c>
+      <c r="E50">
+        <v>159</v>
+      </c>
+      <c r="F50">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51">
+        <v>137</v>
+      </c>
+      <c r="E51">
+        <v>156</v>
+      </c>
+      <c r="F51">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>114</v>
+      </c>
+      <c r="E52">
+        <v>159</v>
+      </c>
+      <c r="F52">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53">
+        <v>173</v>
+      </c>
+      <c r="E53">
+        <v>159</v>
+      </c>
+      <c r="F53">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>178</v>
+      </c>
+      <c r="E54">
+        <v>159</v>
+      </c>
+      <c r="F54">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55">
+        <v>629</v>
+      </c>
+      <c r="E55">
+        <v>176</v>
+      </c>
+      <c r="F55">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56">
+        <v>920</v>
+      </c>
+      <c r="E56">
+        <v>176</v>
+      </c>
+      <c r="F56">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>216</v>
+      </c>
+      <c r="E57">
+        <v>159</v>
+      </c>
+      <c r="F57">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58">
+        <v>174</v>
+      </c>
+      <c r="E58">
+        <v>159</v>
+      </c>
+      <c r="F58">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>179</v>
+      </c>
+      <c r="E59">
+        <v>159</v>
+      </c>
+      <c r="F59">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>181</v>
+      </c>
+      <c r="E60">
+        <v>159</v>
+      </c>
+      <c r="F60">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61">
+        <v>646</v>
+      </c>
+      <c r="E61">
+        <v>159</v>
+      </c>
+      <c r="F61">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>374</v>
+      </c>
+      <c r="E62">
+        <v>159</v>
+      </c>
+      <c r="F62">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63">
+        <v>187</v>
+      </c>
+      <c r="E63">
+        <v>159</v>
+      </c>
+      <c r="F63">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64">
+        <v>183</v>
+      </c>
+      <c r="E64">
+        <v>159</v>
+      </c>
+      <c r="F64">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <v>196</v>
+      </c>
+      <c r="E65">
+        <v>159</v>
+      </c>
+      <c r="F65">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66">
+        <v>184</v>
+      </c>
+      <c r="E66">
+        <v>159</v>
+      </c>
+      <c r="F66">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>197</v>
+      </c>
+      <c r="E67">
+        <v>159</v>
+      </c>
+      <c r="F67">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68">
+        <v>162</v>
+      </c>
+      <c r="E68">
+        <v>176</v>
+      </c>
+      <c r="F68">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69">
+        <v>133</v>
+      </c>
+      <c r="E69">
+        <v>159</v>
+      </c>
+      <c r="F69">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70">
+        <v>164</v>
+      </c>
+      <c r="E70">
+        <v>159</v>
+      </c>
+      <c r="F70">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71">
+        <v>147</v>
+      </c>
+      <c r="E71">
+        <v>159</v>
+      </c>
+      <c r="F71">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72">
+        <v>470</v>
+      </c>
+      <c r="E72">
+        <v>205</v>
+      </c>
+      <c r="F72">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73">
+        <v>441</v>
+      </c>
+      <c r="E73">
+        <v>205</v>
+      </c>
+      <c r="F73">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74">
+        <v>180</v>
+      </c>
+      <c r="E74">
+        <v>159</v>
+      </c>
+      <c r="F74">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75">
+        <v>171</v>
+      </c>
+      <c r="E75">
+        <v>159</v>
+      </c>
+      <c r="F75">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76">
+        <v>161</v>
+      </c>
+      <c r="E76">
+        <v>159</v>
+      </c>
+      <c r="F76">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77">
+        <v>147</v>
+      </c>
+      <c r="E77">
+        <v>159</v>
+      </c>
+      <c r="F77">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78">
+        <v>321</v>
+      </c>
+      <c r="E78">
+        <v>159</v>
+      </c>
+      <c r="F78">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79">
+        <v>205</v>
+      </c>
+      <c r="E79">
+        <v>159</v>
+      </c>
+      <c r="F79">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80">
+        <v>149</v>
+      </c>
+      <c r="E80">
+        <v>159</v>
+      </c>
+      <c r="F80">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81">
+        <v>127</v>
+      </c>
+      <c r="E81">
+        <v>159</v>
+      </c>
+      <c r="F81">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82">
+        <v>129</v>
+      </c>
+      <c r="E82">
+        <v>159</v>
+      </c>
+      <c r="F82">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83">
+        <v>158</v>
+      </c>
+      <c r="E83">
+        <v>159</v>
+      </c>
+      <c r="F83">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84">
+        <v>129</v>
+      </c>
+      <c r="E84">
+        <v>159</v>
+      </c>
+      <c r="F84">
+        <v>0.3688</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85">
+        <v>119</v>
+      </c>
+      <c r="E85">
+        <v>205</v>
+      </c>
+      <c r="F85">
+        <v>0.3688</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
